--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,10 +876,10 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
@@ -900,7 +900,7 @@
     <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
+    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -918,7 +918,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),</t>
+    <t>(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
+    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),</t>
+    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Volexity SolarWinds),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+    <t>(Citation: CrowdStrike StellarParticle January 2022),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Volexity SolarWinds),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,13 +876,13 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Mandiant UNC3890 Aug 2022),(Citation: Mandiant UNC3890 Aug 2022),</t>
@@ -897,10 +897,10 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
+    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -918,7 +918,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
+    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020)</t>
+    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
+    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike StellarParticle January 2022),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Volexity SolarWinds),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+    <t>(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Volexity SolarWinds),(Citation: Secureworks IRON RITUAL Profile),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,13 +876,13 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Mandiant UNC3890 Aug 2022),(Citation: Mandiant UNC3890 Aug 2022),</t>
@@ -897,7 +897,7 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
+    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
   </si>
   <si>
     <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
@@ -918,7 +918,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),</t>
+    <t>(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020)</t>
+    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
+    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Volexity SolarWinds),(Citation: Secureworks IRON RITUAL Profile),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+    <t>(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Volexity SolarWinds),(Citation: Microsoft 365 Defender Solorigate),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,10 +876,10 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
@@ -897,10 +897,10 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
+    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -918,7 +918,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),</t>
+    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020)</t>
+    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Volexity SolarWinds),(Citation: Microsoft 365 Defender Solorigate),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: Symantec RAINDROP January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Volexity SolarWinds),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,10 +876,10 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
@@ -897,10 +897,10 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
+    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -918,7 +918,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
+    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020)</t>
+    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
+    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: Symantec RAINDROP January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Volexity SolarWinds),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Volexity SolarWinds),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,13 +876,13 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Mandiant UNC3890 Aug 2022),(Citation: Mandiant UNC3890 Aug 2022),</t>
@@ -897,10 +897,10 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
+    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -918,7 +918,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),</t>
+    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020)</t>
+    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),</t>
+    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Volexity SolarWinds),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: Volexity SolarWinds),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,10 +876,10 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
@@ -897,10 +897,10 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
+    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -912,13 +912,13 @@
     <t>(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019)</t>
   </si>
   <si>
-    <t>(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020),,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020),,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge January 2024),</t>
+    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020)</t>
+    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
+    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: Volexity SolarWinds),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+    <t>(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Volexity SolarWinds),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,10 +876,10 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
   </si>
   <si>
     <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
@@ -897,7 +897,7 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
+    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
   </si>
   <si>
     <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
@@ -912,13 +912,13 @@
     <t>(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020),,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020),,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
+    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020)</t>
+    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Volexity SolarWinds),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Microsoft 365 Defender Solorigate),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Volexity SolarWinds),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Secureworks IRON RITUAL Profile),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,10 +876,10 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
@@ -897,7 +897,7 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
+    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
   </si>
   <si>
     <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
@@ -912,13 +912,13 @@
     <t>(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019)</t>
   </si>
   <si>
-    <t>(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020),,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020),,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
+    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020)</t>
+    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
+    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Microsoft 365 Defender Solorigate),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: Volexity SolarWinds),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Secureworks IRON RITUAL Profile),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: Mandiant UNC2452 APT29 April 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Symantec RAINDROP January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Symantec RAINDROP January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: MSTIC Nobelium Oct 2021),(Citation: Volexity SolarWinds),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,7 +876,7 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
@@ -897,10 +897,10 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
+    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -912,13 +912,13 @@
     <t>(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020),,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
+    <t>(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020),,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
   </si>
   <si>
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),</t>
+    <t>(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ESET Lazarus Jun 2020)</t>
+    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
+    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Symantec RAINDROP January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Symantec RAINDROP January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: MSTIC Nobelium Oct 2021),(Citation: Volexity SolarWinds),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: CrowdStrike StellarParticle January 2022),(Citation: MSTIC Nobelium Oct 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Volexity SolarWinds),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,13 +876,13 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Mandiant UNC3890 Aug 2022),(Citation: Mandiant UNC3890 Aug 2022),</t>
@@ -897,10 +897,10 @@
     <t>(Citation: Mandiant APT41),(Citation: Mandiant APT41),(Citation: Mandiant APT41)</t>
   </si>
   <si>
-    <t>(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),</t>
+    <t>(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),(Citation: Costa AvosLocker May 2022),(Citation: Cisco Talos Avos Jun 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),(Citation: Microsoft Unidentified Dec 2018),(Citation: FireEye APT29 Nov 2018),</t>
   </si>
   <si>
     <t>(Citation: Mandiant Suspected Turla Campaign February 2023),(Citation: Mandiant Suspected Turla Campaign February 2023),</t>
@@ -912,13 +912,13 @@
     <t>(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019),(Citation: FireEye TRITON 2019)</t>
   </si>
   <si>
-    <t>(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020),,(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020),,(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),</t>
+    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020)</t>
+    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),</t>
+    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: CrowdStrike StellarParticle January 2022),(Citation: MSTIC Nobelium Oct 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: Volexity SolarWinds),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Symantec RAINDROP January 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+    <t>(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Symantec RAINDROP January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Volexity SolarWinds),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
+++ b/docs/enterprise-attack-v15.1/enterprise-attack-v15.1-campaigns.xlsx
@@ -876,13 +876,13 @@
     <t>Erik Schamper, @Schamperr, Fox-IT; Maarten van Dantzig, @MaartenVDantzig, Fox-IT</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2017),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Dragos Crashoverride 2017),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Mandiant UNC3890 Aug 2022),(Citation: Mandiant UNC3890 Aug 2022),</t>
@@ -918,7 +918,7 @@
     <t>(Citation: BlackBerry CostaRicto November 2020),(Citation: BlackBerry CostaRicto November 2020),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),</t>
+    <t>(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),(Citation: Volexity Ivanti Zero-Day Exploitation January 2024),(Citation: Mandiant Cutting Edge January 2024),(Citation: Mandiant Cutting Edge Part 2 January 2024),(Citation: Volexity Ivanti Global Exploitation January 2024),(Citation: Mandiant Cutting Edge Part 3 February 2024),</t>
   </si>
   <si>
     <t>(Citation: Talos Frankenstein June 2019),(Citation: Talos Frankenstein June 2019),</t>
@@ -933,7 +933,7 @@
     <t>(Citation: Cybereason OperationCuckooBees May 2022),(Citation: Cybereason OperationCuckooBees May 2022),</t>
   </si>
   <si>
-    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: ESET Lazarus Jun 2020)</t>
+    <t>(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: The Hacker News Lazarus Aug 2022),(Citation: McAfee Lazarus Jul 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: McAfee Lazarus Jul 2020),(Citation: ClearSky Lazarus Aug 2020),(Citation: McAfee Lazarus Nov 2020),(Citation: ESET Lazarus Jun 2020)</t>
   </si>
   <si>
     <t>(Citation: Cylance Dust Storm),(Citation: Cylance Dust Storm),</t>
@@ -945,7 +945,7 @@
     <t>(Citation: McAfee Honeybee),(Citation: McAfee Honeybee),</t>
   </si>
   <si>
-    <t>(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Threatpost New Op Sharpshooter Data March 2019),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),</t>
+    <t>(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: McAfee Sharpshooter December 2018),(Citation: Bleeping Computer Op Sharpshooter March 2019),(Citation: Threatpost New Op Sharpshooter Data March 2019),</t>
   </si>
   <si>
     <t>(Citation: ESET Operation Spalax Jan 2021),(Citation: ESET Operation Spalax Jan 2021),</t>
@@ -954,10 +954,10 @@
     <t>(Citation: FoxIT Wocao December 2019),(Citation: FoxIT Wocao December 2019),</t>
   </si>
   <si>
-    <t>(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft 365 Defender Solorigate),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Symantec RAINDROP January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: MSTIC Nobelium Oct 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Volexity SolarWinds),(Citation: Symantec RAINDROP January 2021),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: Secureworks IRON RITUAL Profile),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: UK NSCS Russia SolarWinds April 2021),(Citation: NSA Joint Advisory SVR SolarWinds April 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+    <t>(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: CheckPoint Sunburst &amp; Teardrop December 2020),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: FireEye SUNBURST Additional Details Dec 2020),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Symantec Sunburst Sending Data January 2021),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Symantec RAINDROP January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Volexity SolarWinds),(Citation: Microsoft Analyzing Solorigate Dec 2020),(Citation: Cybersecurity Advisory SVR TTP May 2021),(Citation: MSTIC Nobelium Oct 2021),(Citation: FireEye SUNBURST Backdoor December 2020),(Citation: Microsoft - Customer Guidance on Recent Nation-State Cyber Attacks),(Citation: FireEye SUNSHUTTLE Mar 2021),(Citation: CrowdStrike SUNSPOT Implant January 2021),(Citation: CrowdStrike StellarParticle January 2022),(Citation: Microsoft Deep Dive Solorigate January 2021),(Citation: Microsoft 365 Defender Solorigate),(Citation: Secureworks IRON RITUAL Profile),(Citation: Microsoft Internal Solorigate Investigation Blog),(Citation: MSTIC NOBELIUM Mar 2021),(Citation: Symantec RAINDROP January 2021),(Citation: SolarWinds Sunburst Sunspot Update January 2021),(Citation: Mandiant UNC2452 APT29 April 2022),(Citation: NSA Joint Advisory SVR SolarWinds April 2021),(Citation: UK NSCS Russia SolarWinds April 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye TRITON 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
   </si>
   <si>
     <t>source ID</t>
